--- a/biology/Botanique/Forêt_nationale_d'Arapaho/Forêt_nationale_d'Arapaho.xlsx
+++ b/biology/Botanique/Forêt_nationale_d'Arapaho/Forêt_nationale_d'Arapaho.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_nationale_d%27Arapaho</t>
+          <t>Forêt_nationale_d'Arapaho</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La forêt nationale d'Arapaho est une forêt nationale localisée dans le centre-nord du Colorado, aux États-Unis. Ce parc national est géré conjointement avec la forêt national Roosevelt et la prairie nationale Pawnee par les bureaux de le Service des forêts des États-Unis, à Fort Collins, au Colorado. Par ailleurs, la forêt nationale d'Arapahot a une aire de 2 932,67 km2.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_nationale_d%27Arapaho</t>
+          <t>Forêt_nationale_d'Arapaho</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,9 +526,11 @@
           <t>Protection du territoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La forêt nationale d'Arapaho comprend en sept aire protégée, soit l'aire nationale de récréation Arapaho (147,5 km2)[4], les réserves intégrales Byers Peak (35,62 km2) et Vasquez Peak et une partie des réserves intégrales Indian Peaks (424,12 km2), James Peak (30,3 km2), Mount Evans (162,98 km2) et Never Summer (58,4 km2)[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La forêt nationale d'Arapaho comprend en sept aire protégée, soit l'aire nationale de récréation Arapaho (147,5 km2), les réserves intégrales Byers Peak (35,62 km2) et Vasquez Peak et une partie des réserves intégrales Indian Peaks (424,12 km2), James Peak (30,3 km2), Mount Evans (162,98 km2) et Never Summer (58,4 km2).
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>For%C3%AAt_nationale_d%27Arapaho</t>
+          <t>Forêt_nationale_d'Arapaho</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Anecdotes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La plupart du film L'Aube rouge se déroule dans la forêt d'Arapaho. En réalité, le film a été tourné au Nouveau-Mexique.
 </t>
